--- a/Documents/Deliverables/Schedule/Fall Schedule.xlsx
+++ b/Documents/Deliverables/Schedule/Fall Schedule.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="33">
   <si>
     <t>Week 0</t>
   </si>
@@ -103,6 +103,18 @@
   </si>
   <si>
     <t>Documentation</t>
+  </si>
+  <si>
+    <t>Alpha</t>
+  </si>
+  <si>
+    <t>Alpha Demo</t>
+  </si>
+  <si>
+    <t>Beta</t>
+  </si>
+  <si>
+    <t>Senior Project Exposition</t>
   </si>
 </sst>
 </file>
@@ -532,10 +544,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G29"/>
+  <dimension ref="A1:I34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D34" sqref="D34"/>
+      <selection activeCell="M28" sqref="M28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -545,7 +557,8 @@
     <col min="3" max="3" width="7.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8.5703125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="31" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="6.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="14.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -730,7 +743,7 @@
         <v>41215</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
         <v>10</v>
       </c>
@@ -738,7 +751,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B18" s="2" t="s">
         <v>11</v>
       </c>
@@ -746,7 +759,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>9</v>
       </c>
@@ -760,7 +773,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B20" s="4" t="s">
         <v>3</v>
       </c>
@@ -774,7 +787,7 @@
         <v>41222</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B21" s="4" t="s">
         <v>4</v>
       </c>
@@ -782,7 +795,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>10</v>
       </c>
@@ -790,29 +803,169 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B26" s="5" t="s">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>2</v>
+      </c>
+      <c r="B24" s="1">
+        <v>41604</v>
+      </c>
+      <c r="C24" s="1">
+        <v>41608</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" s="1">
+        <v>41288</v>
+      </c>
+      <c r="G24" s="1">
+        <v>41292</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I25" s="5" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B27" s="6" t="s">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="1">
+        <v>41611</v>
+      </c>
+      <c r="C26" s="1">
+        <v>41615</v>
+      </c>
+      <c r="E26" t="s">
+        <v>14</v>
+      </c>
+      <c r="F26" s="1">
+        <v>41295</v>
+      </c>
+      <c r="G26" s="1">
+        <v>41299</v>
+      </c>
+      <c r="I26" s="6" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B28" s="7" t="s">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B27" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I27" s="7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B29" s="8" t="s">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>6</v>
+      </c>
+      <c r="B28" s="1">
+        <v>41618</v>
+      </c>
+      <c r="C28" s="1">
+        <v>41622</v>
+      </c>
+      <c r="E28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F28" s="1">
+        <v>41302</v>
+      </c>
+      <c r="G28" s="1">
+        <v>41306</v>
+      </c>
+      <c r="I28" s="8" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B29" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="1">
+        <v>41625</v>
+      </c>
+      <c r="C30" s="1">
+        <v>41629</v>
+      </c>
+      <c r="E30" t="s">
+        <v>18</v>
+      </c>
+      <c r="F30" s="1">
+        <v>41309</v>
+      </c>
+      <c r="G30" s="1">
+        <v>41313</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B32" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E32" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="1">
+        <v>41316</v>
+      </c>
+      <c r="G32" s="1">
+        <v>41320</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>9</v>
+      </c>
+      <c r="B33" s="1">
+        <v>41281</v>
+      </c>
+      <c r="C33" s="1">
+        <v>41285</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B34" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F34" s="3" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
